--- a/java/nginx.xlsx
+++ b/java/nginx.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="本地安装" sheetId="1" r:id="rId1"/>
+    <sheet name="开启gzip压缩" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>nginx负载均衡</t>
   </si>
@@ -76,10 +76,34 @@
     <t>https://www.runoob.com/w3cnote/nginx-setup-intro.html</t>
   </si>
   <si>
+    <t>Nginx三个重要目录</t>
+  </si>
+  <si>
+    <t>nginx配置文件目录  D:\nginx-1.22.0\conf\nginx.conf</t>
+  </si>
+  <si>
+    <r>
+      <t>前端vue项目打包存放目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  D:\nginx-1.22.0\html</t>
+    </r>
+  </si>
+  <si>
+    <t>nginx日志目录  D:\nginx-1.22.0\logs</t>
+  </si>
+  <si>
     <t>D:\nginx-1.22.0\conf\nginx.conf配置</t>
   </si>
   <si>
-    <t>#gzip  on;
+    <t>放在server {上面
     # 配置负载均衡
     upstream lulu {
         server 127.0.0.1:2021 weight=4;
@@ -87,7 +111,8 @@
     }</t>
   </si>
   <si>
-    <t>location / {
+    <t>放在server {里面的
+location / {
             root   html;
             index  index.html index.htm;
             # 配置反向代理
@@ -108,6 +133,34 @@
   </si>
   <si>
     <t>打开任务管理器结束任务，再启动</t>
+  </si>
+  <si>
+    <r>
+      <t>开启Nginx压缩，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>解决前端访问慢问题</t>
+    </r>
+  </si>
+  <si>
+    <t>D:\nginx-1.22.0\conf\nginx.conf配置
+放在server {上面</t>
+  </si>
+  <si>
+    <t># gzip config
+gzip on;
+gzip_min_length 1k;
+gzip_comp_level 9;
+gzip_types text/plain application/javascript application/x-javascript text/css application/xml text/javascript application/x-httpd-php image/jpeg image/gif image/png;
+gzip_vary on;
+gzip_disable "MSIE [1-6]\.";</t>
   </si>
 </sst>
 </file>
@@ -138,15 +191,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -167,14 +228,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,46 +638,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,13 +698,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -663,10 +716,10 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -681,76 +734,85 @@
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1100,29 +1162,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1138,7 +1200,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1146,7 +1208,7 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1162,7 +1224,7 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1170,15 +1232,15 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="4"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
@@ -1186,65 +1248,90 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="86.4" spans="1:2">
-      <c r="A14" s="6" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" ht="86.4" spans="1:2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="7"/>
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" ht="28.8" spans="1:2">
-      <c r="A17" s="6" t="s">
+    </row>
+    <row r="16" ht="86.4" spans="1:2">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="17" ht="100.8" spans="1:2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" ht="28.8" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://nginx.org/en/download.html"/>
     <hyperlink ref="B11" r:id="rId2" display="https://blog.csdn.net/qq_44105778/article/details/123140841"/>
     <hyperlink ref="B12" r:id="rId3" display="https://www.runoob.com/w3cnote/nginx-setup-intro.html"/>
-    <hyperlink ref="B17" r:id="rId4" display="https://blog.csdn.net/qq_37770674/article/details/125703505"/>
+    <hyperlink ref="B20" r:id="rId4" display="https://blog.csdn.net/qq_37770674/article/details/125703505"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1255,14 +1342,36 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" ht="115.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
